--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl3-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl3-Ackr2.xlsx
@@ -528,22 +528,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1321.101739</v>
+        <v>0.025425</v>
       </c>
       <c r="H2">
-        <v>3963.305217000001</v>
+        <v>0.076275</v>
       </c>
       <c r="I2">
-        <v>0.9999859818464328</v>
+        <v>0.5785685028141451</v>
       </c>
       <c r="J2">
-        <v>0.9999859818464328</v>
+        <v>0.578568502814145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>16323.6290871437</v>
+        <v>0.31415314755</v>
       </c>
       <c r="R2">
-        <v>146912.6617842933</v>
+        <v>2.82737832795</v>
       </c>
       <c r="S2">
-        <v>0.9999859818464328</v>
+        <v>0.5785685028141451</v>
       </c>
       <c r="T2">
-        <v>0.9999859818464328</v>
+        <v>0.578568502814145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.055559</v>
       </c>
       <c r="I3">
-        <v>1.401815356715333E-05</v>
+        <v>0.4214314971858549</v>
       </c>
       <c r="J3">
-        <v>1.401815356715333E-05</v>
+        <v>0.4214314971858549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,10 +632,10 @@
         <v>2.059473123862</v>
       </c>
       <c r="S3">
-        <v>1.401815356715333E-05</v>
+        <v>0.4214314971858549</v>
       </c>
       <c r="T3">
-        <v>1.401815356715333E-05</v>
+        <v>0.4214314971858549</v>
       </c>
     </row>
   </sheetData>
